--- a/data/pca/factorExposure/factorExposure_2017-06-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02320057330043348</v>
+        <v>-0.01011093370736385</v>
       </c>
       <c r="C2">
-        <v>-0.007182119432298987</v>
+        <v>0.04598337816933159</v>
       </c>
       <c r="D2">
-        <v>0.03423819004244664</v>
+        <v>-0.03004053291024731</v>
       </c>
       <c r="E2">
-        <v>-0.004525125371456205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03370689707909672</v>
+      </c>
+      <c r="F2">
+        <v>0.01100264170407074</v>
+      </c>
+      <c r="G2">
+        <v>0.09749673555362712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01748727782883757</v>
+        <v>-0.04499539132366912</v>
       </c>
       <c r="C3">
-        <v>0.03622280819466735</v>
+        <v>0.09743853603074352</v>
       </c>
       <c r="D3">
-        <v>0.09795501942305578</v>
+        <v>-0.01666962098200917</v>
       </c>
       <c r="E3">
-        <v>-0.01651497389272203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09743831719068244</v>
+      </c>
+      <c r="F3">
+        <v>0.004436236567114574</v>
+      </c>
+      <c r="G3">
+        <v>0.1831322197189171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02465517501054556</v>
+        <v>-0.05555238833286368</v>
       </c>
       <c r="C4">
-        <v>0.007922842745785603</v>
+        <v>0.0687287864705471</v>
       </c>
       <c r="D4">
-        <v>0.08865722252228291</v>
+        <v>-0.02449770690998676</v>
       </c>
       <c r="E4">
-        <v>0.02405066855601863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02667987336752323</v>
+      </c>
+      <c r="F4">
+        <v>0.01278197440984836</v>
+      </c>
+      <c r="G4">
+        <v>0.09556476307353559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01390982781247228</v>
+        <v>-0.03710837943708897</v>
       </c>
       <c r="C6">
-        <v>-0.007454965646110452</v>
+        <v>0.05308544820323035</v>
       </c>
       <c r="D6">
-        <v>0.08170726133827391</v>
+        <v>-0.0168376715499146</v>
       </c>
       <c r="E6">
-        <v>0.01530983774018483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.03087804128067153</v>
+      </c>
+      <c r="F6">
+        <v>0.01139887516839887</v>
+      </c>
+      <c r="G6">
+        <v>0.07567349812108082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01153774049622813</v>
+        <v>-0.02055886027683499</v>
       </c>
       <c r="C7">
-        <v>0.003372278671539816</v>
+        <v>0.04216811989135068</v>
       </c>
       <c r="D7">
-        <v>0.04509570613850158</v>
+        <v>-0.01346703079639255</v>
       </c>
       <c r="E7">
-        <v>0.0627616592436374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.003684500869429614</v>
+      </c>
+      <c r="F7">
+        <v>-0.003526880442157183</v>
+      </c>
+      <c r="G7">
+        <v>0.1282905727688844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0006821008741708521</v>
+        <v>-0.003442216028108104</v>
       </c>
       <c r="C8">
-        <v>-0.0008186140156044209</v>
+        <v>0.02527624285784338</v>
       </c>
       <c r="D8">
-        <v>0.005984528858414796</v>
+        <v>-0.004069243973263865</v>
       </c>
       <c r="E8">
-        <v>0.006867275633312739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02350212667461938</v>
+      </c>
+      <c r="F8">
+        <v>0.007724914803100892</v>
+      </c>
+      <c r="G8">
+        <v>0.06766307734547015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01685198686670579</v>
+        <v>-0.03295545092160174</v>
       </c>
       <c r="C9">
-        <v>0.009942181799294292</v>
+        <v>0.04976778283072815</v>
       </c>
       <c r="D9">
-        <v>0.06461877341643024</v>
+        <v>-0.01673314958390566</v>
       </c>
       <c r="E9">
-        <v>0.01250175694342154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01689473123334525</v>
+      </c>
+      <c r="F9">
+        <v>0.0106468593612184</v>
+      </c>
+      <c r="G9">
+        <v>0.09575940714422902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02835308064626076</v>
+        <v>-0.09877449357595443</v>
       </c>
       <c r="C10">
-        <v>0.1763754810021035</v>
+        <v>-0.180500770830306</v>
       </c>
       <c r="D10">
-        <v>-0.09185119062886396</v>
+        <v>0.01457250874727177</v>
       </c>
       <c r="E10">
-        <v>-0.02178863055182939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02072891615978231</v>
+      </c>
+      <c r="F10">
+        <v>-0.02025947150391266</v>
+      </c>
+      <c r="G10">
+        <v>0.06068166676817035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0007301457904299602</v>
+        <v>-0.03453872427315571</v>
       </c>
       <c r="C11">
-        <v>-0.0003830174918601586</v>
+        <v>0.05510859394838277</v>
       </c>
       <c r="D11">
-        <v>0.05733385898627681</v>
+        <v>-0.002440755601136083</v>
       </c>
       <c r="E11">
-        <v>0.004793517242520268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009940495882442993</v>
+      </c>
+      <c r="F11">
+        <v>0.02238224942650473</v>
+      </c>
+      <c r="G11">
+        <v>0.08446979747388211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005552609859921722</v>
+        <v>-0.0363614437397481</v>
       </c>
       <c r="C12">
-        <v>0.001242230751845549</v>
+        <v>0.04929972502491873</v>
       </c>
       <c r="D12">
-        <v>0.05217377147459404</v>
+        <v>-0.006247637201042122</v>
       </c>
       <c r="E12">
-        <v>0.01505894394721165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.002567302044506233</v>
+      </c>
+      <c r="F12">
+        <v>0.002342903185430143</v>
+      </c>
+      <c r="G12">
+        <v>0.07876396203538216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02453627122844745</v>
+        <v>-0.01545861609337829</v>
       </c>
       <c r="C13">
-        <v>0.01417146497097242</v>
+        <v>0.04108032064208861</v>
       </c>
       <c r="D13">
-        <v>0.03843104165371185</v>
+        <v>-0.02649228787354648</v>
       </c>
       <c r="E13">
-        <v>-0.002520203346719016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03146684554756354</v>
+      </c>
+      <c r="F13">
+        <v>0.008083986130528787</v>
+      </c>
+      <c r="G13">
+        <v>0.1218746652881034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008965986889838792</v>
+        <v>-0.008497150031361752</v>
       </c>
       <c r="C14">
-        <v>0.01073773842555026</v>
+        <v>0.02963864070178996</v>
       </c>
       <c r="D14">
-        <v>0.02014702588048818</v>
+        <v>-0.0099841171337421</v>
       </c>
       <c r="E14">
-        <v>0.007623286966316841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002690042930141811</v>
+      </c>
+      <c r="F14">
+        <v>-0.008117387072391296</v>
+      </c>
+      <c r="G14">
+        <v>0.09929000344009606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.00162443497528575</v>
+        <v>-0.0331680173360047</v>
       </c>
       <c r="C16">
-        <v>0.0060801278882727</v>
+        <v>0.04860662051393234</v>
       </c>
       <c r="D16">
-        <v>0.05272028586557725</v>
+        <v>-0.001959670207525472</v>
       </c>
       <c r="E16">
-        <v>0.01468036040235417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.009517780415678474</v>
+      </c>
+      <c r="F16">
+        <v>0.003270727803392211</v>
+      </c>
+      <c r="G16">
+        <v>0.08712470058656056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01584765073945503</v>
+        <v>-0.02149524884283341</v>
       </c>
       <c r="C19">
-        <v>0.01659610448784341</v>
+        <v>0.05486113719224302</v>
       </c>
       <c r="D19">
-        <v>0.05004496145312248</v>
+        <v>-0.01909849181894778</v>
       </c>
       <c r="E19">
-        <v>0.0145977043680352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06836412087125761</v>
+      </c>
+      <c r="F19">
+        <v>0.02486757710003613</v>
+      </c>
+      <c r="G19">
+        <v>0.1327972879333326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01144865637645014</v>
+        <v>-0.01483930641727136</v>
       </c>
       <c r="C20">
-        <v>0.004613332882647155</v>
+        <v>0.0400515415029294</v>
       </c>
       <c r="D20">
-        <v>0.03603786818542302</v>
+        <v>-0.01416693341632092</v>
       </c>
       <c r="E20">
-        <v>-0.007772273181899656</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02975783430280196</v>
+      </c>
+      <c r="F20">
+        <v>-0.009696928639729478</v>
+      </c>
+      <c r="G20">
+        <v>0.1067495930559225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01592137303388323</v>
+        <v>-0.01259492434349179</v>
       </c>
       <c r="C21">
-        <v>0.01444633398304446</v>
+        <v>0.04081597901674141</v>
       </c>
       <c r="D21">
-        <v>0.0398765303962129</v>
+        <v>-0.0186228761103429</v>
       </c>
       <c r="E21">
-        <v>0.01056825042169304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04234067726737343</v>
+      </c>
+      <c r="F21">
+        <v>0.001992153799121456</v>
+      </c>
+      <c r="G21">
+        <v>0.1303932748816919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0005493815457686003</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002313531902121949</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0002611808007863385</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0008173026157496111</v>
+      </c>
+      <c r="F22">
+        <v>0.000164613161263025</v>
+      </c>
+      <c r="G22">
+        <v>0.002202087013707615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0005537147055688222</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.000230989341617324</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0002613080945849933</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0008231113818950137</v>
+      </c>
+      <c r="F23">
+        <v>0.0001632698125290935</v>
+      </c>
+      <c r="G23">
+        <v>0.002213448069413825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004057856389966875</v>
+        <v>-0.0280762431869869</v>
       </c>
       <c r="C24">
-        <v>-0.006703380837807451</v>
+        <v>0.05163929323527448</v>
       </c>
       <c r="D24">
-        <v>0.05102912689371355</v>
+        <v>-0.00724698361297168</v>
       </c>
       <c r="E24">
-        <v>0.01239283307933713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.00558587529688973</v>
+      </c>
+      <c r="F24">
+        <v>0.01465675864774913</v>
+      </c>
+      <c r="G24">
+        <v>0.08591440399022528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01246081444416848</v>
+        <v>-0.04290280126733521</v>
       </c>
       <c r="C25">
-        <v>0.01021256608489803</v>
+        <v>0.05944048032746081</v>
       </c>
       <c r="D25">
-        <v>0.05889358533841321</v>
+        <v>-0.01120700646932151</v>
       </c>
       <c r="E25">
-        <v>0.01398928376922095</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001511627809992225</v>
+      </c>
+      <c r="F25">
+        <v>0.00805353237862147</v>
+      </c>
+      <c r="G25">
+        <v>0.09584177501240036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02323242950691815</v>
+        <v>-0.01399620591165487</v>
       </c>
       <c r="C26">
-        <v>0.004496752209196946</v>
+        <v>0.01219883204599214</v>
       </c>
       <c r="D26">
-        <v>0.003050810897243712</v>
+        <v>-0.02407399528595777</v>
       </c>
       <c r="E26">
-        <v>0.009109224137748171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.007168628104000257</v>
+      </c>
+      <c r="F26">
+        <v>-0.007965616957705134</v>
+      </c>
+      <c r="G26">
+        <v>0.08012496505824543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05335191873809171</v>
+        <v>-0.126033546998651</v>
       </c>
       <c r="C28">
-        <v>0.2451028121787997</v>
+        <v>-0.2361141692196614</v>
       </c>
       <c r="D28">
-        <v>-0.1218009489089349</v>
+        <v>0.00549161479815888</v>
       </c>
       <c r="E28">
-        <v>0.0003883679155687584</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.007126476057609839</v>
+      </c>
+      <c r="F28">
+        <v>-0.01491073056929899</v>
+      </c>
+      <c r="G28">
+        <v>0.05738226237385156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009429740802713568</v>
+        <v>-0.009579239166047171</v>
       </c>
       <c r="C29">
-        <v>0.01482474382408696</v>
+        <v>0.02327208185565447</v>
       </c>
       <c r="D29">
-        <v>0.01916318439680534</v>
+        <v>-0.008958863506570937</v>
       </c>
       <c r="E29">
-        <v>0.004639763407896839</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.001807522593605835</v>
+      </c>
+      <c r="F29">
+        <v>-0.01749827986835065</v>
+      </c>
+      <c r="G29">
+        <v>0.09262989999013317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02416579966039625</v>
+        <v>-0.04103700760436878</v>
       </c>
       <c r="C30">
-        <v>-0.007334325104235109</v>
+        <v>0.07036863365302247</v>
       </c>
       <c r="D30">
-        <v>0.1009018071842844</v>
+        <v>-0.0291259451502964</v>
       </c>
       <c r="E30">
-        <v>-0.03109359645871506</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05320772305551836</v>
+      </c>
+      <c r="F30">
+        <v>0.04890757752033058</v>
+      </c>
+      <c r="G30">
+        <v>0.1069538168999333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01086188582679834</v>
+        <v>-0.05309219095460394</v>
       </c>
       <c r="C31">
-        <v>0.03367759553017857</v>
+        <v>0.03809044004094673</v>
       </c>
       <c r="D31">
-        <v>0.03993719584203156</v>
+        <v>-0.003762852994466936</v>
       </c>
       <c r="E31">
-        <v>0.0100445997945508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.001025931356280878</v>
+      </c>
+      <c r="F31">
+        <v>-0.03946930141347423</v>
+      </c>
+      <c r="G31">
+        <v>0.09260989361436069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004794018779653202</v>
+        <v>-0.001669867965294064</v>
       </c>
       <c r="C32">
-        <v>0.01875342496865883</v>
+        <v>0.02578405956907383</v>
       </c>
       <c r="D32">
-        <v>0.009853058165317308</v>
+        <v>0.003436215688391749</v>
       </c>
       <c r="E32">
-        <v>0.06082441487895321</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01963015423891754</v>
+      </c>
+      <c r="F32">
+        <v>0.03859751320224933</v>
+      </c>
+      <c r="G32">
+        <v>0.09411266441991124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01516317397132635</v>
+        <v>-0.02771054243094748</v>
       </c>
       <c r="C33">
-        <v>0.02033525543486801</v>
+        <v>0.05113248884422589</v>
       </c>
       <c r="D33">
-        <v>0.04872442779446692</v>
+        <v>-0.01582552114746968</v>
       </c>
       <c r="E33">
-        <v>-0.01792409867712786</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03565118662834708</v>
+      </c>
+      <c r="F33">
+        <v>0.01833234072971079</v>
+      </c>
+      <c r="G33">
+        <v>0.1435570203095833</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003275475230920592</v>
+        <v>-0.04029314370204761</v>
       </c>
       <c r="C34">
-        <v>0.01402526891132865</v>
+        <v>0.06179391255247144</v>
       </c>
       <c r="D34">
-        <v>0.05746083179540294</v>
+        <v>0.004595755162682175</v>
       </c>
       <c r="E34">
-        <v>0.01858243209663267</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0003276707703749516</v>
+      </c>
+      <c r="F34">
+        <v>0.02095816999116544</v>
+      </c>
+      <c r="G34">
+        <v>0.09292902006602029</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01371549735485074</v>
+        <v>-0.01607046653463979</v>
       </c>
       <c r="C36">
-        <v>0.01647451862425407</v>
+        <v>0.00989415747378161</v>
       </c>
       <c r="D36">
-        <v>0.009139164525271769</v>
+        <v>-0.01232082690697852</v>
       </c>
       <c r="E36">
-        <v>0.007989370886559622</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004540811330552136</v>
+      </c>
+      <c r="F36">
+        <v>-0.006875495378932781</v>
+      </c>
+      <c r="G36">
+        <v>0.08580907581013712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.001401171767473013</v>
+        <v>-0.03196755520052938</v>
       </c>
       <c r="C38">
-        <v>0.0313101732283509</v>
+        <v>0.03241196024043402</v>
       </c>
       <c r="D38">
-        <v>0.05586102075397638</v>
+        <v>0.007436803961437088</v>
       </c>
       <c r="E38">
-        <v>0.0159048749099531</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003241069849262198</v>
+      </c>
+      <c r="F38">
+        <v>-0.01841371567040062</v>
+      </c>
+      <c r="G38">
+        <v>0.08236991275592982</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.003493031503920707</v>
+        <v>-0.0356268517545095</v>
       </c>
       <c r="C39">
-        <v>-0.03027692283657323</v>
+        <v>0.0815915846268636</v>
       </c>
       <c r="D39">
-        <v>0.1023227428039562</v>
+        <v>-0.01182997160906709</v>
       </c>
       <c r="E39">
-        <v>0.0008029440849550878</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02166571273668311</v>
+      </c>
+      <c r="F39">
+        <v>0.02780799301496942</v>
+      </c>
+      <c r="G39">
+        <v>0.08480826859773068</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0122907011693959</v>
+        <v>-0.01512278695928687</v>
       </c>
       <c r="C40">
-        <v>0.008751801538553771</v>
+        <v>0.04334147256249897</v>
       </c>
       <c r="D40">
-        <v>0.04341422262734738</v>
+        <v>-0.01480882831950579</v>
       </c>
       <c r="E40">
-        <v>0.01805971417568289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02041683114135062</v>
+      </c>
+      <c r="F40">
+        <v>-0.01568975914186327</v>
+      </c>
+      <c r="G40">
+        <v>0.1222070559489955</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.007032616434376571</v>
+        <v>-0.02013980453954187</v>
       </c>
       <c r="C41">
-        <v>0.02053589715791091</v>
+        <v>0.00233631041432345</v>
       </c>
       <c r="D41">
-        <v>-0.0100377824307006</v>
+        <v>-0.004397988181065658</v>
       </c>
       <c r="E41">
-        <v>0.003677575691881703</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.003053261840389507</v>
+      </c>
+      <c r="F41">
+        <v>-0.01314873232762813</v>
+      </c>
+      <c r="G41">
+        <v>0.07415588157987703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08859259930941377</v>
+        <v>-0.007966487421419925</v>
       </c>
       <c r="C42">
-        <v>-0.04453053189823659</v>
+        <v>0.034156936850134</v>
       </c>
       <c r="D42">
-        <v>0.1649548532095015</v>
+        <v>-0.0912192358931555</v>
       </c>
       <c r="E42">
-        <v>-0.4636402971022562</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01923886186277977</v>
+      </c>
+      <c r="F42">
+        <v>-0.03430229471094479</v>
+      </c>
+      <c r="G42">
+        <v>-0.1203839398792236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008660679282308197</v>
+        <v>-0.03401980243818321</v>
       </c>
       <c r="C43">
-        <v>0.02596853069773353</v>
+        <v>0.01809331925671774</v>
       </c>
       <c r="D43">
-        <v>-0.006125812733322589</v>
+        <v>-0.006107411206132601</v>
       </c>
       <c r="E43">
-        <v>0.003462464762717158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.0167115938502013</v>
+      </c>
+      <c r="F43">
+        <v>-0.002820510193561842</v>
+      </c>
+      <c r="G43">
+        <v>0.1083019066970948</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003623505355422515</v>
+        <v>-0.01249227073351346</v>
       </c>
       <c r="C44">
-        <v>0.0016629287728595</v>
+        <v>0.05951159884547011</v>
       </c>
       <c r="D44">
-        <v>0.05539621656887257</v>
+        <v>-0.006805663308494659</v>
       </c>
       <c r="E44">
-        <v>0.01727897749483222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01855333853509867</v>
+      </c>
+      <c r="F44">
+        <v>-0.007923692705670617</v>
+      </c>
+      <c r="G44">
+        <v>0.1017240188449458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0114151106412733</v>
+        <v>-0.008246435010494737</v>
       </c>
       <c r="C46">
-        <v>0.009539640761227441</v>
+        <v>0.01850879756876578</v>
       </c>
       <c r="D46">
-        <v>0.007608317888574967</v>
+        <v>-0.01261514806935396</v>
       </c>
       <c r="E46">
-        <v>-0.002398894115288495</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001869364500248399</v>
+      </c>
+      <c r="F46">
+        <v>-0.01747306584117331</v>
+      </c>
+      <c r="G46">
+        <v>0.09701630782936746</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.005245675690391987</v>
+        <v>-0.0771056531545066</v>
       </c>
       <c r="C47">
-        <v>0.0397471326921138</v>
+        <v>0.06719108985027926</v>
       </c>
       <c r="D47">
-        <v>0.07374244766098963</v>
+        <v>0.005057572291811011</v>
       </c>
       <c r="E47">
-        <v>0.01027472691340503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.006041356019272784</v>
+      </c>
+      <c r="F47">
+        <v>-0.05379599636022838</v>
+      </c>
+      <c r="G47">
+        <v>0.08183545741330001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004962654982540921</v>
+        <v>-0.01986669953533001</v>
       </c>
       <c r="C48">
-        <v>0.02140337481546405</v>
+        <v>0.01329106518461939</v>
       </c>
       <c r="D48">
-        <v>0.02120978497554094</v>
+        <v>-0.001798940344530363</v>
       </c>
       <c r="E48">
-        <v>0.002408129846870273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002049814071750495</v>
+      </c>
+      <c r="F48">
+        <v>-0.02028967348170672</v>
+      </c>
+      <c r="G48">
+        <v>0.08778969860376737</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.007764382193868836</v>
+        <v>-0.07476287627506974</v>
       </c>
       <c r="C50">
-        <v>0.04402918652023264</v>
+        <v>0.07174849914886905</v>
       </c>
       <c r="D50">
-        <v>0.07240792806893906</v>
+        <v>0.002413043393921381</v>
       </c>
       <c r="E50">
-        <v>0.03116640870361086</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.005805891847014247</v>
+      </c>
+      <c r="F50">
+        <v>-0.05484802455595209</v>
+      </c>
+      <c r="G50">
+        <v>0.09331201496109218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008015476746965025</v>
+        <v>-0.01443867530546041</v>
       </c>
       <c r="C51">
-        <v>0.01110928323990549</v>
+        <v>0.03714943188459165</v>
       </c>
       <c r="D51">
-        <v>0.01891321601611345</v>
+        <v>-0.01058825877606585</v>
       </c>
       <c r="E51">
-        <v>0.005873964602917687</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01937034351431573</v>
+      </c>
+      <c r="F51">
+        <v>0.02451594579278788</v>
+      </c>
+      <c r="G51">
+        <v>0.1202538728741031</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.009111965628302751</v>
+        <v>-0.08176996078647919</v>
       </c>
       <c r="C53">
-        <v>0.04652693868570262</v>
+        <v>0.08530572165465641</v>
       </c>
       <c r="D53">
-        <v>0.1297689105610359</v>
+        <v>0.003666719387674852</v>
       </c>
       <c r="E53">
-        <v>0.01964053884157553</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02351240860281733</v>
+      </c>
+      <c r="F53">
+        <v>-0.06655169442018426</v>
+      </c>
+      <c r="G53">
+        <v>0.07985489296830534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.002968887161599439</v>
+        <v>-0.02994857800107602</v>
       </c>
       <c r="C54">
-        <v>0.03276566711219814</v>
+        <v>0.01671905294774688</v>
       </c>
       <c r="D54">
-        <v>0.00206243802455464</v>
+        <v>0.001290349007096401</v>
       </c>
       <c r="E54">
-        <v>-0.003959299203073992</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01208725345156707</v>
+      </c>
+      <c r="F54">
+        <v>2.636177435268039e-05</v>
+      </c>
+      <c r="G54">
+        <v>0.0970057345224621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.004885877466155786</v>
+        <v>-0.07192308608816056</v>
       </c>
       <c r="C55">
-        <v>0.03128471724635944</v>
+        <v>0.06927365629128397</v>
       </c>
       <c r="D55">
-        <v>0.1047504079723306</v>
+        <v>0.005127496814180629</v>
       </c>
       <c r="E55">
-        <v>0.007186648606466347</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02112027941530552</v>
+      </c>
+      <c r="F55">
+        <v>-0.06224803539032005</v>
+      </c>
+      <c r="G55">
+        <v>0.05769381691246991</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.008353691225163431</v>
+        <v>-0.1375435329694505</v>
       </c>
       <c r="C56">
-        <v>0.06716646458937264</v>
+        <v>0.1086953269560378</v>
       </c>
       <c r="D56">
-        <v>0.1582346974435707</v>
+        <v>0.01270023806725377</v>
       </c>
       <c r="E56">
-        <v>0.01312977178961908</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02955761830875159</v>
+      </c>
+      <c r="F56">
+        <v>-0.08125895570793136</v>
+      </c>
+      <c r="G56">
+        <v>0.0299588239897298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02405480616324227</v>
+        <v>-0.006533079531289571</v>
       </c>
       <c r="C57">
-        <v>0.003174749231114941</v>
+        <v>0.008992623853154578</v>
       </c>
       <c r="D57">
-        <v>0.04558608219857302</v>
+        <v>-0.02347551319306819</v>
       </c>
       <c r="E57">
-        <v>-0.01013670080598163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02537387885356467</v>
+      </c>
+      <c r="F57">
+        <v>0.01075002828449221</v>
+      </c>
+      <c r="G57">
+        <v>0.02919514732267265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0145865689308456</v>
+        <v>-0.05532686361187681</v>
       </c>
       <c r="C58">
-        <v>0.05750065865280152</v>
+        <v>0.05381271671308461</v>
       </c>
       <c r="D58">
-        <v>0.1830988752645592</v>
+        <v>-0.02323910940628598</v>
       </c>
       <c r="E58">
-        <v>-0.5761923636785551</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9388124084680805</v>
+      </c>
+      <c r="F58">
+        <v>-0.2085990997780074</v>
+      </c>
+      <c r="G58">
+        <v>-0.1591968254041565</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.05393790034721167</v>
+        <v>-0.1603754953261873</v>
       </c>
       <c r="C59">
-        <v>0.2723024132471865</v>
+        <v>-0.2028211652003517</v>
       </c>
       <c r="D59">
-        <v>-0.1064053957026273</v>
+        <v>0.01093102988523532</v>
       </c>
       <c r="E59">
-        <v>0.01423336601272198</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01805539758664006</v>
+      </c>
+      <c r="F59">
+        <v>0.003925456042267782</v>
+      </c>
+      <c r="G59">
+        <v>0.04296013617059431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04890365511395337</v>
+        <v>-0.2861327887608305</v>
       </c>
       <c r="C60">
-        <v>0.1522435987466708</v>
+        <v>0.1072038260713439</v>
       </c>
       <c r="D60">
-        <v>0.1355949248137763</v>
+        <v>-0.01225773933968431</v>
       </c>
       <c r="E60">
-        <v>0.07227460403979073</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01507152866951987</v>
+      </c>
+      <c r="F60">
+        <v>0.3443395626939443</v>
+      </c>
+      <c r="G60">
+        <v>-0.1456924648317937</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003353548272065782</v>
+        <v>-0.03806998977872681</v>
       </c>
       <c r="C61">
-        <v>0.0002633321520979937</v>
+        <v>0.06777985202010396</v>
       </c>
       <c r="D61">
-        <v>0.08000166388990128</v>
+        <v>-0.005290595809248038</v>
       </c>
       <c r="E61">
-        <v>0.01890711137896878</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01397235158825266</v>
+      </c>
+      <c r="F61">
+        <v>0.01556814668217786</v>
+      </c>
+      <c r="G61">
+        <v>0.08926337575125945</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.00863160234108901</v>
+        <v>-0.01506721177279251</v>
       </c>
       <c r="C63">
-        <v>0.005611474414397962</v>
+        <v>0.03057330476253932</v>
       </c>
       <c r="D63">
-        <v>0.02731928888044408</v>
+        <v>-0.008558382354073203</v>
       </c>
       <c r="E63">
-        <v>0.02165326995648444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.002043252260330189</v>
+      </c>
+      <c r="F63">
+        <v>-0.01585563740836975</v>
+      </c>
+      <c r="G63">
+        <v>0.0908767865098886</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.009998423845498686</v>
+        <v>-0.04746058589131936</v>
       </c>
       <c r="C64">
-        <v>0.02412300842746252</v>
+        <v>0.04762908921458992</v>
       </c>
       <c r="D64">
-        <v>0.06196779100361456</v>
+        <v>-0.00625262830429598</v>
       </c>
       <c r="E64">
-        <v>0.003323084202038599</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0001618386949385878</v>
+      </c>
+      <c r="F64">
+        <v>0.006668195548234394</v>
+      </c>
+      <c r="G64">
+        <v>0.08678619557044584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01701592353492125</v>
+        <v>-0.07483053035188995</v>
       </c>
       <c r="C65">
-        <v>-0.004088511927079101</v>
+        <v>0.0600029795664718</v>
       </c>
       <c r="D65">
-        <v>0.1007909617008171</v>
+        <v>-0.01645828286563315</v>
       </c>
       <c r="E65">
-        <v>0.02579172200775379</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.03152218685391912</v>
+      </c>
+      <c r="F65">
+        <v>0.03188605918834719</v>
+      </c>
+      <c r="G65">
+        <v>0.03137279314797128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.003937812242311171</v>
+        <v>-0.05119440934112784</v>
       </c>
       <c r="C66">
-        <v>-0.02589943546758263</v>
+        <v>0.1105824532035307</v>
       </c>
       <c r="D66">
-        <v>0.1377533504530944</v>
+        <v>-0.01166962033073206</v>
       </c>
       <c r="E66">
-        <v>0.01066172703746839</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03054220328524925</v>
+      </c>
+      <c r="F66">
+        <v>0.0376312888488551</v>
+      </c>
+      <c r="G66">
+        <v>0.1010342937860369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.005748539409792263</v>
+        <v>-0.05501245065536997</v>
       </c>
       <c r="C67">
-        <v>0.05060874212637175</v>
+        <v>0.03582754916202073</v>
       </c>
       <c r="D67">
-        <v>0.07187528327419911</v>
+        <v>0.005852188803068184</v>
       </c>
       <c r="E67">
-        <v>0.01853955232712227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003443617940647653</v>
+      </c>
+      <c r="F67">
+        <v>-0.01726925569394046</v>
+      </c>
+      <c r="G67">
+        <v>0.07399374225175882</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.06797881280735003</v>
+        <v>-0.1537747194085645</v>
       </c>
       <c r="C68">
-        <v>0.2468295397021459</v>
+        <v>-0.2689390543276527</v>
       </c>
       <c r="D68">
-        <v>-0.1511492065037004</v>
+        <v>-0.006447370138865093</v>
       </c>
       <c r="E68">
-        <v>-0.029271150511243</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01238110298068513</v>
+      </c>
+      <c r="F68">
+        <v>-0.03222802881644153</v>
+      </c>
+      <c r="G68">
+        <v>0.03126187713997895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0007513692770359718</v>
+        <v>-0.08142212543958424</v>
       </c>
       <c r="C69">
-        <v>0.03409507750005653</v>
+        <v>0.07046325046021394</v>
       </c>
       <c r="D69">
-        <v>0.07777502933961335</v>
+        <v>0.008957603136122805</v>
       </c>
       <c r="E69">
-        <v>0.02445241155542512</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02216773045787465</v>
+      </c>
+      <c r="F69">
+        <v>-0.0368299799358549</v>
+      </c>
+      <c r="G69">
+        <v>0.09135046617021944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05189351111488987</v>
+        <v>-0.140602544598251</v>
       </c>
       <c r="C71">
-        <v>0.2157752117449517</v>
+        <v>-0.2270864719841262</v>
       </c>
       <c r="D71">
-        <v>-0.1020579134585796</v>
+        <v>0.002080632673726844</v>
       </c>
       <c r="E71">
-        <v>-0.02085991448093743</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03404341802685656</v>
+      </c>
+      <c r="F71">
+        <v>-0.01740354680507242</v>
+      </c>
+      <c r="G71">
+        <v>0.06755510761395958</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.001300779736281672</v>
+        <v>-0.08454213809541505</v>
       </c>
       <c r="C72">
-        <v>0.02395749391985792</v>
+        <v>0.07387909085400436</v>
       </c>
       <c r="D72">
-        <v>0.1099612125140445</v>
+        <v>0.008122336565560032</v>
       </c>
       <c r="E72">
-        <v>0.03576138858350805</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.004958284123967227</v>
+      </c>
+      <c r="F72">
+        <v>0.03916448106308115</v>
+      </c>
+      <c r="G72">
+        <v>0.07999220779758184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.06215508327340342</v>
+        <v>-0.3741767238076039</v>
       </c>
       <c r="C73">
-        <v>0.1655955854947</v>
+        <v>0.1163891196346058</v>
       </c>
       <c r="D73">
-        <v>0.2424236111933562</v>
+        <v>-0.02077065507519148</v>
       </c>
       <c r="E73">
-        <v>0.05224054524548839</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.05018893618296594</v>
+      </c>
+      <c r="F73">
+        <v>0.5771403856287906</v>
+      </c>
+      <c r="G73">
+        <v>-0.2684940900577488</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.005923788881914239</v>
+        <v>-0.1053141231761891</v>
       </c>
       <c r="C74">
-        <v>0.0573336083894903</v>
+        <v>0.1106250974242225</v>
       </c>
       <c r="D74">
-        <v>0.1769646896441998</v>
+        <v>0.009539914244607954</v>
       </c>
       <c r="E74">
-        <v>0.0108929077284051</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.005030126328764211</v>
+      </c>
+      <c r="F74">
+        <v>-0.0692796244974047</v>
+      </c>
+      <c r="G74">
+        <v>0.07415693989782518</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01673850280049255</v>
+        <v>-0.2491869970075886</v>
       </c>
       <c r="C75">
-        <v>0.1403475512125333</v>
+        <v>0.1509588325440866</v>
       </c>
       <c r="D75">
-        <v>0.2987105970908579</v>
+        <v>0.0311153401162107</v>
       </c>
       <c r="E75">
-        <v>0.01092280994180842</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05304552463245751</v>
+      </c>
+      <c r="F75">
+        <v>-0.1780375715173465</v>
+      </c>
+      <c r="G75">
+        <v>-0.04265057768389816</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.004674167152979973</v>
+        <v>-0.1215049377712874</v>
       </c>
       <c r="C76">
-        <v>0.08932670356074288</v>
+        <v>0.1113644171346791</v>
       </c>
       <c r="D76">
-        <v>0.2254450485475446</v>
+        <v>0.01943983334334777</v>
       </c>
       <c r="E76">
-        <v>0.04565491919502887</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02810015185677269</v>
+      </c>
+      <c r="F76">
+        <v>-0.1150732681293457</v>
+      </c>
+      <c r="G76">
+        <v>0.04988209731353564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01524108351862241</v>
+        <v>-0.06807637411160744</v>
       </c>
       <c r="C77">
-        <v>0.01716942131668798</v>
+        <v>0.06270803310210232</v>
       </c>
       <c r="D77">
-        <v>0.0700010299022069</v>
+        <v>-0.01167007511322288</v>
       </c>
       <c r="E77">
-        <v>-0.001921134041534903</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04289353880795543</v>
+      </c>
+      <c r="F77">
+        <v>0.01163717489224781</v>
+      </c>
+      <c r="G77">
+        <v>0.06368649282796705</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.005851903283748047</v>
+        <v>-0.04228860624953425</v>
       </c>
       <c r="C78">
-        <v>0.01016618303829487</v>
+        <v>0.05254495173137032</v>
       </c>
       <c r="D78">
-        <v>0.05967253356440199</v>
+        <v>-0.005570635394006448</v>
       </c>
       <c r="E78">
-        <v>0.005362134721776134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02193279638198592</v>
+      </c>
+      <c r="F78">
+        <v>0.0367819643496009</v>
+      </c>
+      <c r="G78">
+        <v>0.08866570224122433</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01147912591215921</v>
+        <v>-0.04345330541640979</v>
       </c>
       <c r="C80">
-        <v>0.0180366949711663</v>
+        <v>0.07468793946969693</v>
       </c>
       <c r="D80">
-        <v>0.1585024554396703</v>
+        <v>-0.01131486611530948</v>
       </c>
       <c r="E80">
-        <v>0.6298162776822313</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03279110101744593</v>
+      </c>
+      <c r="F80">
+        <v>0.02768156740810686</v>
+      </c>
+      <c r="G80">
+        <v>0.3426465498399805</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01141583249157782</v>
+        <v>-0.1400781814118295</v>
       </c>
       <c r="C81">
-        <v>0.08653010193892087</v>
+        <v>0.09684054484254212</v>
       </c>
       <c r="D81">
-        <v>0.1770621477444683</v>
+        <v>0.01544879221929684</v>
       </c>
       <c r="E81">
-        <v>0.0252864263678954</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03062080311571634</v>
+      </c>
+      <c r="F81">
+        <v>-0.1349963024035853</v>
+      </c>
+      <c r="G81">
+        <v>0.02359927776281973</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1269515750626598</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0731943346310955</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.007844844728774985</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08927165499193124</v>
+      </c>
+      <c r="F82">
+        <v>-0.03995516703010905</v>
+      </c>
+      <c r="G82">
+        <v>0.05717463143366736</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.008451076359176211</v>
+        <v>-0.03619722285549717</v>
       </c>
       <c r="C83">
-        <v>0.02024275389159698</v>
+        <v>0.02982917200819229</v>
       </c>
       <c r="D83">
-        <v>0.03867295793288238</v>
+        <v>-0.00579334595524942</v>
       </c>
       <c r="E83">
-        <v>-8.080987203719024e-05</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02756754380372268</v>
+      </c>
+      <c r="F83">
+        <v>0.03348598730289774</v>
+      </c>
+      <c r="G83">
+        <v>0.06019202411778981</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02213278013698742</v>
+        <v>-0.2149968754222343</v>
       </c>
       <c r="C85">
-        <v>0.1062618623977042</v>
+        <v>0.1450524145986195</v>
       </c>
       <c r="D85">
-        <v>0.2708866613504698</v>
+        <v>0.01865758490588959</v>
       </c>
       <c r="E85">
-        <v>0.02187348701997669</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09267960486137229</v>
+      </c>
+      <c r="F85">
+        <v>-0.1398916907621933</v>
+      </c>
+      <c r="G85">
+        <v>-0.1012863513537151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01050444653468879</v>
+        <v>-0.01382825308736775</v>
       </c>
       <c r="C86">
-        <v>0.02322676215623623</v>
+        <v>0.0301116208787127</v>
       </c>
       <c r="D86">
-        <v>0.05799227251425528</v>
+        <v>-0.01280046314738571</v>
       </c>
       <c r="E86">
-        <v>-0.03745751564576973</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04953299302514846</v>
+      </c>
+      <c r="F86">
+        <v>0.0345902527515842</v>
+      </c>
+      <c r="G86">
+        <v>0.1836100758289399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00789491076270076</v>
+        <v>-0.02235696113970358</v>
       </c>
       <c r="C87">
-        <v>-0.003323562128199589</v>
+        <v>0.02397972525275922</v>
       </c>
       <c r="D87">
-        <v>0.0568364773796693</v>
+        <v>-0.0120859994331304</v>
       </c>
       <c r="E87">
-        <v>-0.008335536971471203</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.0870055805115301</v>
+      </c>
+      <c r="F87">
+        <v>0.01834909240696235</v>
+      </c>
+      <c r="G87">
+        <v>0.1159177970229093</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02864215638861134</v>
+        <v>-0.09200494442807886</v>
       </c>
       <c r="C88">
-        <v>0.02570041239462346</v>
+        <v>0.06738654706304337</v>
       </c>
       <c r="D88">
-        <v>0.05570271443762251</v>
+        <v>-0.02272810425150563</v>
       </c>
       <c r="E88">
-        <v>-0.0001437670369021324</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.006952436289817444</v>
+      </c>
+      <c r="F88">
+        <v>-0.0158889348728702</v>
+      </c>
+      <c r="G88">
+        <v>0.08201489587771217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.09952478325382423</v>
+        <v>-0.2343081968677115</v>
       </c>
       <c r="C89">
-        <v>0.4048572873625549</v>
+        <v>-0.3695516564139641</v>
       </c>
       <c r="D89">
-        <v>-0.1887675831342293</v>
+        <v>-0.0001484251011089092</v>
       </c>
       <c r="E89">
-        <v>0.02210259734958766</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01253639029596765</v>
+      </c>
+      <c r="F89">
+        <v>-0.02789595402560104</v>
+      </c>
+      <c r="G89">
+        <v>0.07106964139840666</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07626012780055938</v>
+        <v>-0.208272248136907</v>
       </c>
       <c r="C90">
-        <v>0.3162474849471686</v>
+        <v>-0.3186004444801923</v>
       </c>
       <c r="D90">
-        <v>-0.1706607381844764</v>
+        <v>0.003806771284774031</v>
       </c>
       <c r="E90">
-        <v>-0.02216799186012728</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0008004644848464003</v>
+      </c>
+      <c r="F90">
+        <v>-0.05242384060412507</v>
+      </c>
+      <c r="G90">
+        <v>0.03796403557732986</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01303098546537977</v>
+        <v>-0.1883388374604964</v>
       </c>
       <c r="C91">
-        <v>0.1246636217102058</v>
+        <v>0.1387604994485639</v>
       </c>
       <c r="D91">
-        <v>0.2235974185549026</v>
+        <v>0.02302800698142567</v>
       </c>
       <c r="E91">
-        <v>0.02621856664617058</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05752214274678719</v>
+      </c>
+      <c r="F91">
+        <v>-0.1499511434408848</v>
+      </c>
+      <c r="G91">
+        <v>0.01555113146416589</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.04453723355354165</v>
+        <v>-0.2009066969251058</v>
       </c>
       <c r="C92">
-        <v>0.3255507522049211</v>
+        <v>-0.2545467687859304</v>
       </c>
       <c r="D92">
-        <v>-0.06292925679465529</v>
+        <v>0.03747709741043466</v>
       </c>
       <c r="E92">
-        <v>-0.03161231544756676</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.04102783574432253</v>
+      </c>
+      <c r="F92">
+        <v>-0.05512648292837282</v>
+      </c>
+      <c r="G92">
+        <v>0.1306425656790547</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.07517218444672014</v>
+        <v>-0.2327168238119556</v>
       </c>
       <c r="C93">
-        <v>0.3380279438037874</v>
+        <v>-0.3137871441052969</v>
       </c>
       <c r="D93">
-        <v>-0.1444926232177272</v>
+        <v>0.01065120148009841</v>
       </c>
       <c r="E93">
-        <v>-0.03066417789013058</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01037445341060504</v>
+      </c>
+      <c r="F93">
+        <v>-0.03833867154813842</v>
+      </c>
+      <c r="G93">
+        <v>0.04841600743789047</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03766852049044701</v>
+        <v>-0.316611323378843</v>
       </c>
       <c r="C94">
-        <v>0.1462267433691806</v>
+        <v>0.1749618125992583</v>
       </c>
       <c r="D94">
-        <v>0.2380859933885478</v>
+        <v>0.01804487478118093</v>
       </c>
       <c r="E94">
-        <v>0.0008435898750119124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1681194919137523</v>
+      </c>
+      <c r="F94">
+        <v>-0.482506993370324</v>
+      </c>
+      <c r="G94">
+        <v>-0.3766532115507848</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002799019190197668</v>
+        <v>-0.09992767387620077</v>
       </c>
       <c r="C95">
-        <v>0.02912633704206621</v>
+        <v>0.08718713339548374</v>
       </c>
       <c r="D95">
-        <v>0.1200065000028093</v>
+        <v>0.01002692212783703</v>
       </c>
       <c r="E95">
-        <v>-0.1322828557632662</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06381456202171427</v>
+      </c>
+      <c r="F95">
+        <v>0.2067335835554345</v>
+      </c>
+      <c r="G95">
+        <v>-0.08788011464090605</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.02108709239211422</v>
+        <v>-0.1967128121824513</v>
       </c>
       <c r="C98">
-        <v>0.1491016535776197</v>
+        <v>0.04587506471532268</v>
       </c>
       <c r="D98">
-        <v>0.1580152570836073</v>
+        <v>0.01312660445875849</v>
       </c>
       <c r="E98">
-        <v>0.002396637125564456</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.05945360924408544</v>
+      </c>
+      <c r="F98">
+        <v>0.2424623489832896</v>
+      </c>
+      <c r="G98">
+        <v>-0.0103787384563005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009187242815714321</v>
+        <v>-0.009417203765208213</v>
       </c>
       <c r="C101">
-        <v>0.01447575556883499</v>
+        <v>0.02323694178825863</v>
       </c>
       <c r="D101">
-        <v>0.01880659056408318</v>
+        <v>-0.008786131849625052</v>
       </c>
       <c r="E101">
-        <v>0.004546614299112223</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.00159640133836726</v>
+      </c>
+      <c r="F101">
+        <v>-0.01837572246356069</v>
+      </c>
+      <c r="G101">
+        <v>0.09170166189589228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01936375942069362</v>
+        <v>-0.1172284250322426</v>
       </c>
       <c r="C102">
-        <v>0.05611381354572968</v>
+        <v>0.08393523514528548</v>
       </c>
       <c r="D102">
-        <v>0.127226530854863</v>
+        <v>-0.0005683052459756443</v>
       </c>
       <c r="E102">
-        <v>0.01340860293874858</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03438160655763642</v>
+      </c>
+      <c r="F102">
+        <v>-0.04146859286257532</v>
+      </c>
+      <c r="G102">
+        <v>0.004350938741248526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.0008259705095497175</v>
+        <v>-0.001355125280297189</v>
       </c>
       <c r="C103">
-        <v>0.003023033922267046</v>
+        <v>0.002099946500847709</v>
       </c>
       <c r="D103">
-        <v>0.009857121269831225</v>
+        <v>-0.0001337328044490256</v>
       </c>
       <c r="E103">
-        <v>-0.004329387141074833</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.003002651192844436</v>
+      </c>
+      <c r="F103">
+        <v>-0.005128166186627352</v>
+      </c>
+      <c r="G103">
+        <v>0.004655506602365358</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9676074999297927</v>
+        <v>-0.02094168158119179</v>
       </c>
       <c r="C104">
-        <v>-0.211671552390508</v>
+        <v>-0.02896069344893849</v>
       </c>
       <c r="D104">
-        <v>-0.02841085899964674</v>
+        <v>-0.9876358994695651</v>
       </c>
       <c r="E104">
-        <v>0.03828837169151003</v>
+        <v>0.04616020473074833</v>
+      </c>
+      <c r="F104">
+        <v>-0.03904324626724606</v>
+      </c>
+      <c r="G104">
+        <v>-0.03362948504147553</v>
       </c>
     </row>
   </sheetData>
